--- a/Test/Random_VS_Greedy_standard_parameter/Random_vs_Greedy.xlsx
+++ b/Test/Random_VS_Greedy_standard_parameter/Random_vs_Greedy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inggi\Desktop\intelligenza_art_pycharm\.idea\TSP-SimulatedAnnealing\Test\Random_VS_Gready_standard_parameter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inggi\Desktop\intelligenza_art_pycharm\.idea\TSP-SimulatedAnnealing\Test\Random_VS_Greedy_standard_parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E30ED-B900-4CF3-8912-A49492CC27A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD9837-D477-492A-AA5B-983FAA254021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="585" windowWidth="16005" windowHeight="15375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="burma14" sheetId="2" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,12 +729,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -850,7 +850,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
